--- a/test.xlsx
+++ b/test.xlsx
@@ -8,12 +8,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>
-            32
-        </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>
             Hello
@@ -31,19 +26,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" t="n">
+        <v>
+                    32
+                </v>
+      </c>
+      <c r="B1" t="s">
         <v>
                     0
                 </v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>
+                        This string is embeded
+                    </t>
+        </is>
+      </c>
+      <c r="Z1" t="s">
         <v>
                     1
                 </v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="n">
         <v>
-                    2
+                    53
                 </v>
       </c>
     </row>

--- a/test.xlsx
+++ b/test.xlsx
@@ -48,7 +48,7 @@
                     1
                 </v>
       </c>
-      <c r="E1" t="n">
+      <c r="AS1" t="n">
         <v>
                     53
                 </v>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,15 +8,40 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>
-            Hello
+            Name
         </t>
   </si>
   <si>
     <t>
-            Hey
+            English
+        </t>
+  </si>
+  <si>
+    <t>
+            Maths
+        </t>
+  </si>
+  <si>
+    <t>
+            Science
+        </t>
+  </si>
+  <si>
+    <t>
+            Copper
+        </t>
+  </si>
+  <si>
+    <t>
+            Gold
+        </t>
+  </si>
+  <si>
+    <t>
+            Silver
         </t>
   </si>
 </sst>
@@ -26,31 +51,90 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetData>
     <row r="1">
-      <c r="A1" t="n">
+      <c r="A1" t="s">
         <v>
-                    32
+                    0
                 </v>
       </c>
       <c r="B1" t="s">
         <v>
-                    0
-                </v>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>
-                        This string is embeded
-                    </t>
-        </is>
-      </c>
-      <c r="Z1" t="s">
-        <v>
                     1
                 </v>
       </c>
-      <c r="AS1" t="n">
+      <c r="C1" t="s">
         <v>
-                    53
+                    2
+                </v>
+      </c>
+      <c r="D1" t="s">
+        <v>
+                    3
+                </v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>
+                    4
+                </v>
+      </c>
+      <c r="B2" t="n">
+        <v>
+                    90
+                </v>
+      </c>
+      <c r="C2" t="n">
+        <v>
+                    80
+                </v>
+      </c>
+      <c r="D2" t="n">
+        <v>
+                    70
+                </v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>
+                    5
+                </v>
+      </c>
+      <c r="B3" t="n">
+        <v>
+                    80
+                </v>
+      </c>
+      <c r="C3" t="n">
+        <v>
+                    70
+                </v>
+      </c>
+      <c r="D3" t="n">
+        <v>
+                    60
+                </v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>
+                    6
+                </v>
+      </c>
+      <c r="B4" t="n">
+        <v>
+                    70
+                </v>
+      </c>
+      <c r="C4" t="n">
+        <v>
+                    60
+                </v>
+      </c>
+      <c r="D4" t="n">
+        <v>
+                    50
                 </v>
       </c>
     </row>

--- a/test.xlsx
+++ b/test.xlsx
@@ -29,8 +29,22 @@
       <b val="true"/>
     </font>
   </fonts>
+  <fills count="1">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+  </fills>
+  <borders count="1">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+  </borders>
   <cellXfs count="1">
-    <xf fontId="0" numFmtId="164" applyFont="true"/>
+    <xf fontId="0" numFmtId="164" applyFont="true" applyBorder="false"/>
   </cellXfs>
 </styleSheet>
 </file>

--- a/test.xlsx
+++ b/test.xlsx
@@ -2,16 +2,62 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheets>
-    <sheet name="sheet 2" state="visiable" r:id="rId1" sheetId="1"/>
+    <sheet name="sheet 1" state="visiable" r:id="rId1" sheetId="1"/>
+    <sheet name="sheet 2" state="visiable" r:id="rId2" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>
+            Name
+        </t>
+  </si>
+  <si>
+    <t>
+            English
+        </t>
+  </si>
+  <si>
+    <t>
+            Maths
+        </t>
+  </si>
+  <si>
+    <t>
+            Science
+        </t>
+  </si>
+  <si>
+    <t>
+            Copper
+        </t>
+  </si>
+  <si>
+    <t>
+            Gold
+        </t>
+  </si>
+  <si>
+    <t>
+            Silver
+        </t>
+  </si>
   <si>
     <t>
             Bold word
+        </t>
+  </si>
+  <si>
+    <t>
+            Crossed this word
+        </t>
+  </si>
+  <si>
+    <t>
+            Has undeline
         </t>
   </si>
 </sst>
@@ -22,11 +68,25 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="4">
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <b val="true"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <strike/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <u val="double"/>
     </font>
   </fonts>
   <fills count="1">
@@ -43,8 +103,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf fontId="0" numFmtId="164" applyFont="true" applyBorder="false"/>
+    <xf fontId="1" numFmtId="164" applyFont="true" applyBorder="false"/>
+    <xf fontId="2" numFmtId="164" applyFont="true" applyBorder="false"/>
+    <xf fontId="3" numFmtId="164" applyFont="true" applyBorder="false"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -53,9 +116,114 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetData>
     <row r="1">
-      <c r="A1" s="0" t="s">
+      <c r="A1" t="s">
         <v>
                     0
+                </v>
+      </c>
+      <c r="B1" t="s">
+        <v>
+                    1
+                </v>
+      </c>
+      <c r="C1" t="s">
+        <v>
+                    2
+                </v>
+      </c>
+      <c r="D1" t="s">
+        <v>
+                    3
+                </v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>
+                    4
+                </v>
+      </c>
+      <c r="B2" t="n">
+        <v>
+                    90
+                </v>
+      </c>
+      <c r="C2" t="n">
+        <v>
+                    80
+                </v>
+      </c>
+      <c r="D2" t="n">
+        <v>
+                    70
+                </v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>
+                    5
+                </v>
+      </c>
+      <c r="B3" t="n">
+        <v>
+                    80
+                </v>
+      </c>
+      <c r="C3" t="n">
+        <v>
+                    70
+                </v>
+      </c>
+      <c r="D3" t="n">
+        <v>
+                    60
+                </v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>
+                    6
+                </v>
+      </c>
+      <c r="B4" t="n">
+        <v>
+                    70
+                </v>
+      </c>
+      <c r="C4" t="n">
+        <v>
+                    60
+                </v>
+      </c>
+      <c r="D4" t="n">
+        <v>
+                    50
+                </v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>
+                    7
+                </v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>
+                    8
+                </v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>
+                    9
                 </v>
       </c>
     </row>
